--- a/biology/Botanique/Furcraea_parmentieri/Furcraea_parmentieri.xlsx
+++ b/biology/Botanique/Furcraea_parmentieri/Furcraea_parmentieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Furcraea parmentieri est une espèce de plantes de la famille des Asparagaceae, et de la sous-famille des Agaves (Agavoideae). C'est une plante originaire du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Furcraea parmentieri pousse avec des tiges dressées et épaisses de 5 à 8 mètres de haut et de 30 à 40 centimètres de diametre. Les feuilles  d' abord ascendantes sont ensuite étalées et retombantes, elles forment une "robe" sèche sous la rosette foliaire . Les feuilles raides, lancéolées, en forme d'épée se rétrécissent à partir du centre en une pointe en forme de poinçon, non épineuse. Au sommet, elles sont rayées et rugueuses avec un aspect bosselé le long des nervures longitudinales , d’un vert, légèrement bleu le limbe des feuilles mesure 70 à 120 centimètres (rarement à partir de 35 centimètres) de long et 6 à 10 centimètres (rarement à partir de 4 centimètres) de large. Les minuscules dents marginales triangulaires pâles sont disposées de façon irrégulière. Il y a environ deux dents périphériques par millimètre.
 L' inflorescence dressée, pyramidale, à poils duveteux atteint une hauteur de 4 à 5 mètres (rarement de 2,5 à 8 mètres) et mesure jusqu'à 2 mètres de large. Les inflorescences partielles longues de 30 à 65 centimètres (rarement jusqu'à 100 centimètres) ont des bulbilles ample et allongées . Les fleurs , qui se tiennent ensemble par paires à quatre, mesurent 40 millimètres de long. Elles reposent sur des tiges florales de 3 à 5 millimètres de long . Leurs tépales blanc verdâtre, elliptiques à elliptiques allongés, poilus à l'extérieur mesurent 18 à 20 millimètres de long et 5 à 7 millimètres de large.
